--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/123.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/123.xlsx
@@ -479,13 +479,13 @@
         <v>-6.414216311999492</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.59981336598825</v>
+        <v>-21.54873791124959</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1346088913628338</v>
+        <v>0.02705562929757183</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.871723998593207</v>
+        <v>-8.851537289239715</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.617761884952006</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.75004276899481</v>
+        <v>-21.69651792181583</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01571313336632915</v>
+        <v>-0.09675358060018231</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.31739373300179</v>
+        <v>-8.316640825944285</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-6.840070224496076</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.97970386656814</v>
+        <v>-21.94113449139505</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1286836844480038</v>
+        <v>-0.2369751865501699</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.188191948529829</v>
+        <v>-8.187077254964171</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.050426715348539</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.02220400326224</v>
+        <v>-22.00783032307351</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1105063569168141</v>
+        <v>-0.239962369745855</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.718128605296557</v>
+        <v>-7.722186480996096</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.237652331852367</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.9847639886754</v>
+        <v>-21.9749224178523</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2424606522548485</v>
+        <v>-0.3756274212958779</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.920355131773976</v>
+        <v>-6.959017398077539</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.382390670754312</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.23827366174554</v>
+        <v>-22.22845164694991</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3605741691526467</v>
+        <v>-0.4762089595689191</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.292415978794287</v>
+        <v>-6.365306182173122</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.47145877067231</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.63923578192184</v>
+        <v>-22.60643054584484</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5355321688920651</v>
+        <v>-0.6433201032869389</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.888280893161363</v>
+        <v>-5.957538564438081</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.486922675604394</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.82475892550066</v>
+        <v>-22.83700588770228</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6842215347355494</v>
+        <v>-0.7820114500875822</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.589924360101012</v>
+        <v>-5.677510918121794</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.415998475030146</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.2797103485083</v>
+        <v>-23.30569053099908</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.7807500863159181</v>
+        <v>-0.8767457361477932</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.338991193649735</v>
+        <v>-5.416990409204496</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.255591835641606</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.72872162817263</v>
+        <v>-23.75272176288232</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.035447788054719</v>
+        <v>-1.116619969066108</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.019245255546631</v>
+        <v>-5.102280148174314</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-7.008699038068988</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.21984192398171</v>
+        <v>-24.22798700942199</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9732547317006942</v>
+        <v>-1.057179423578156</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.846721981226937</v>
+        <v>-4.930881345434011</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.687674381589052</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.85203940194248</v>
+        <v>-24.85029402649099</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.9093651899638496</v>
+        <v>-0.9910702727237323</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.759326094473964</v>
+        <v>-4.825674806664868</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.320091132710439</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.43052136145646</v>
+        <v>-25.42920132960239</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7955197760608682</v>
+        <v>-0.8778506516997159</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.649499444215587</v>
+        <v>-4.710108462344732</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.931600740146044</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.0779138727596</v>
+        <v>-26.0720177304781</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7808038653914542</v>
+        <v>-0.8670850585787692</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.6038067860374</v>
+        <v>-4.66320333046355</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.546027881612427</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.81315205944747</v>
+        <v>-26.81261426869211</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7004285924993725</v>
+        <v>-0.791735684745876</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.505640417156615</v>
+        <v>-4.566498774635972</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.189717357435241</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.64976380352082</v>
+        <v>-27.63164758857547</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6135167174262254</v>
+        <v>-0.6953244693303132</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.543989787020696</v>
+        <v>-4.591237149382562</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.875908926660742</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.44496321492797</v>
+        <v>-28.44918487235756</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.4868327714907253</v>
+        <v>-0.5562371129734499</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.72320122273433</v>
+        <v>-4.77931724355278</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.610114801925252</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.14476099083758</v>
+        <v>-29.14833974386416</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2043997337959156</v>
+        <v>-0.2782090704657306</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.914869847944864</v>
+        <v>-5.000075459621457</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-4.398824977647439</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.5920611180985</v>
+        <v>-29.58778079258651</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.02908483655521252</v>
+        <v>-0.09905630283449926</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.213744615733108</v>
+        <v>-5.304445471128115</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-4.236596516659613</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.22073362210822</v>
+        <v>-30.20943512723878</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4267857197434049</v>
+        <v>0.3466548971946689</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.499648848303427</v>
+        <v>-5.57636225505219</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-4.113178316994134</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.73499603192183</v>
+        <v>-30.73031480784677</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4395264716385853</v>
+        <v>0.3639228694486125</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.740266210265514</v>
+        <v>-5.84056907514714</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-4.022890351837721</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.09220154063924</v>
+        <v>-31.09437225968815</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7013816794305499</v>
+        <v>0.6338009375091845</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.028864285619503</v>
+        <v>-6.138148256115653</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-3.953541903677109</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.30858654006547</v>
+        <v>-31.31191106473497</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9284613813781485</v>
+        <v>0.8549258290928807</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.230364703639403</v>
+        <v>-6.354843707477924</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-3.894921872898806</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.57063975263554</v>
+        <v>-31.58945998456973</v>
       </c>
       <c r="F25" t="n">
-        <v>1.160302976014122</v>
+        <v>1.075674267147825</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.288949672925645</v>
+        <v>-6.400423918498173</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.844926389547688</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.45007195429055</v>
+        <v>-31.47294272841398</v>
       </c>
       <c r="F26" t="n">
-        <v>1.215939874159614</v>
+        <v>1.117338383667674</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.399876349729078</v>
+        <v>-6.513257307979702</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.799696055742731</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.51936629311877</v>
+        <v>-31.55402690730176</v>
       </c>
       <c r="F27" t="n">
-        <v>1.426509399917641</v>
+        <v>1.35053912221265</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.703469009143896</v>
+        <v>-6.818864238223688</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.760455775982364</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.36983112908731</v>
+        <v>-31.39040406998329</v>
       </c>
       <c r="F28" t="n">
-        <v>1.587391948887211</v>
+        <v>1.498798255451846</v>
       </c>
       <c r="G28" t="n">
-        <v>-6.795269891083957</v>
+        <v>-6.944677940936878</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.734144480693713</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.17159656765451</v>
+        <v>-31.20567294551691</v>
       </c>
       <c r="F29" t="n">
-        <v>1.593737879800467</v>
+        <v>1.518960519771003</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.087578722649935</v>
+        <v>-7.221728182071215</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.724263953177037</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.00029065604468</v>
+        <v>-31.04951562168421</v>
       </c>
       <c r="F30" t="n">
-        <v>1.699975999018529</v>
+        <v>1.627775145607929</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.148984648898387</v>
+        <v>-7.261862039441719</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.737776723158486</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.7165962545782</v>
+        <v>-30.77382452445887</v>
       </c>
       <c r="F31" t="n">
-        <v>1.6593727969888</v>
+        <v>1.580938459822884</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.142511603806591</v>
+        <v>-7.261642034132708</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.782352440077728</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.33667641995711</v>
+        <v>-30.38049658850527</v>
       </c>
       <c r="F32" t="n">
-        <v>1.604562141003817</v>
+        <v>1.532771964170037</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.21040524216744</v>
+        <v>-7.302264792189904</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.858432005245352</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.81431048126158</v>
+        <v>-29.8619489641728</v>
       </c>
       <c r="F33" t="n">
-        <v>1.600797605716292</v>
+        <v>1.511235888921277</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.5056572558673</v>
+        <v>-7.569683689796418</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.969722742502265</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.17014715899403</v>
+        <v>-29.24935640374836</v>
       </c>
       <c r="F34" t="n">
-        <v>1.612946787780576</v>
+        <v>1.518652512338387</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.469336823852989</v>
+        <v>-7.550274332534766</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.119130483947873</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.74192149202439</v>
+        <v>-28.8084902095243</v>
       </c>
       <c r="F35" t="n">
-        <v>1.642759951655023</v>
+        <v>1.541259280091002</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.540281202498791</v>
+        <v>-7.581378194222078</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.302053561905711</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.10712306241042</v>
+        <v>-28.17559115907813</v>
       </c>
       <c r="F36" t="n">
-        <v>1.517826270177879</v>
+        <v>1.43220020391073</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.474719620413462</v>
+        <v>-7.494246313839921</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.518946657345746</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.40278095461801</v>
+        <v>-27.5034602730284</v>
       </c>
       <c r="F37" t="n">
-        <v>1.646035586255856</v>
+        <v>1.555989857781017</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.41369503670063</v>
+        <v>-7.428327834253306</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.768816176879464</v>
       </c>
       <c r="E38" t="n">
-        <v>-26.91468695405956</v>
+        <v>-26.994167538695</v>
       </c>
       <c r="F38" t="n">
-        <v>1.500797859260414</v>
+        <v>1.417865635776935</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.369997093324144</v>
+        <v>-7.389817127162617</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.041994781813196</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.16300214827139</v>
+        <v>-26.25004602652994</v>
       </c>
       <c r="F39" t="n">
-        <v>1.547507430866919</v>
+        <v>1.468241962533627</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.375032770397066</v>
+        <v>-7.393449659264735</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.335838606572963</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.49594605134951</v>
+        <v>-25.5889105169239</v>
       </c>
       <c r="F40" t="n">
-        <v>1.616461983717888</v>
+        <v>1.522568606838786</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.10118482876056</v>
+        <v>-7.102235965236946</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.646280783731883</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.96894533414415</v>
+        <v>-25.05027396337528</v>
       </c>
       <c r="F41" t="n">
-        <v>1.613401465419199</v>
+        <v>1.528694532443031</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.142760943156804</v>
+        <v>-7.143772967578255</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.961269211336396</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.2571401573694</v>
+        <v>-24.33641051470956</v>
       </c>
       <c r="F42" t="n">
-        <v>1.649404111987161</v>
+        <v>1.547658990079793</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.862361732318631</v>
+        <v>-6.861936388721209</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.280553971923158</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.55967443773531</v>
+        <v>-23.63328821413045</v>
       </c>
       <c r="F43" t="n">
-        <v>1.589171547386768</v>
+        <v>1.494051029784071</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.887691676896117</v>
+        <v>-6.86943123624819</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.60408789205381</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.85196624871504</v>
+        <v>-22.93771942916073</v>
       </c>
       <c r="F44" t="n">
-        <v>1.693791405331881</v>
+        <v>1.606302627448438</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.761393962503104</v>
+        <v>-6.759379691673934</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.924410353144248</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.05131315014785</v>
+        <v>-22.12904835933179</v>
       </c>
       <c r="F45" t="n">
-        <v>1.723677904309332</v>
+        <v>1.652049064702162</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.690762480296783</v>
+        <v>-6.670160205359604</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-7.245980229552941</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.54575072805391</v>
+        <v>-21.6257397694035</v>
       </c>
       <c r="F46" t="n">
-        <v>1.730454067826876</v>
+        <v>1.6573927492077</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.530002156498886</v>
+        <v>-6.513183972876699</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.572944711595468</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.88718194705299</v>
+        <v>-20.96258509996143</v>
       </c>
       <c r="F47" t="n">
-        <v>1.806052781009982</v>
+        <v>1.734653724725556</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.517970310599408</v>
+        <v>-6.485761533360173</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.901199858918255</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.24816919351974</v>
+        <v>-20.3266866438024</v>
       </c>
       <c r="F48" t="n">
-        <v>1.836736188106741</v>
+        <v>1.765958035694413</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.481556987454626</v>
+        <v>-6.446805926644594</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.236074481590332</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.51804979702153</v>
+        <v>-19.5856158719223</v>
       </c>
       <c r="F49" t="n">
-        <v>1.981763687806906</v>
+        <v>1.921765795536125</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.181777753396002</v>
+        <v>-6.174478466143698</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.582113734086381</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.12819550044687</v>
+        <v>-19.20017634854846</v>
       </c>
       <c r="F50" t="n">
-        <v>1.982140141335658</v>
+        <v>1.929813100839067</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.172498418362597</v>
+        <v>-6.159953226742093</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.935401314677925</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.55657770657404</v>
+        <v>-18.61259105824828</v>
       </c>
       <c r="F51" t="n">
-        <v>1.956932421929845</v>
+        <v>1.90098262734487</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.209014410651585</v>
+        <v>-6.194049160631958</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.297956269591504</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.99926025778694</v>
+        <v>-18.07052242187909</v>
       </c>
       <c r="F52" t="n">
-        <v>1.986232240083266</v>
+        <v>1.929940215017607</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.243956142729426</v>
+        <v>-6.214089199779443</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-9.670449666325782</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.65739156361104</v>
+        <v>-17.70052238219096</v>
       </c>
       <c r="F53" t="n">
-        <v>2.068025324966753</v>
+        <v>2.022371778843501</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.138759381974017</v>
+        <v>-6.101920715231813</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-10.04557601670471</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.06209142047488</v>
+        <v>-17.08755336823777</v>
       </c>
       <c r="F54" t="n">
-        <v>2.123706224174047</v>
+        <v>2.078668692916027</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.115590378431707</v>
+        <v>-6.091741802934896</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-10.4176828516372</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.80615191099188</v>
+        <v>-16.8321858725582</v>
       </c>
       <c r="F55" t="n">
-        <v>2.05444855289733</v>
+        <v>2.02090018777656</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.358823359067593</v>
+        <v>-6.322532261094484</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-10.77966957820805</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.30995193704808</v>
+        <v>-16.31320312661458</v>
       </c>
       <c r="F56" t="n">
-        <v>2.099021628502994</v>
+        <v>2.059929129595142</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.2073423703031</v>
+        <v>-6.182691997680115</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-11.11955567047731</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.2217591421758</v>
+        <v>-16.21369716985226</v>
       </c>
       <c r="F57" t="n">
-        <v>2.106482252981906</v>
+        <v>2.08975696049019</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.356950869437564</v>
+        <v>-6.331567145784542</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-11.42485087104217</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.94681606300111</v>
+        <v>-15.9467720619393</v>
       </c>
       <c r="F58" t="n">
-        <v>1.99662137967546</v>
+        <v>1.96150364335041</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.553381387336473</v>
+        <v>-6.505254003738562</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-11.68342714759406</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.67379436352511</v>
+        <v>-15.67142808420152</v>
       </c>
       <c r="F59" t="n">
-        <v>2.060652702611445</v>
+        <v>2.024459384775674</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.332662283322731</v>
+        <v>-6.300805514577913</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-11.88369454584207</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.38057617668188</v>
+        <v>-15.39444628916332</v>
       </c>
       <c r="F60" t="n">
-        <v>2.094616633315904</v>
+        <v>2.082897683855908</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.342181179692615</v>
+        <v>-6.31982864029708</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-12.0118293023657</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.25168239964254</v>
+        <v>-15.24380620957994</v>
       </c>
       <c r="F61" t="n">
-        <v>2.043052277890551</v>
+        <v>2.017067206392898</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.181244851647508</v>
+        <v>-6.156746038237397</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-12.05662502231502</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.18452211231173</v>
+        <v>-15.1932000995005</v>
       </c>
       <c r="F62" t="n">
-        <v>2.090001410833536</v>
+        <v>2.054619668137672</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.265008206298362</v>
+        <v>-6.242807226115701</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-12.01601926056756</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.07158116467913</v>
+        <v>-15.08812556391677</v>
       </c>
       <c r="F63" t="n">
-        <v>2.065517264444026</v>
+        <v>2.016803200022085</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.303641138560724</v>
+        <v>-6.296992089221719</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-11.88679712701361</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.17741349632723</v>
+        <v>-15.15928016985785</v>
       </c>
       <c r="F64" t="n">
-        <v>1.907040106852978</v>
+        <v>1.867258257976891</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.294586697843197</v>
+        <v>-6.289560798784009</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-11.66982480831531</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.1655527656681</v>
+        <v>-15.14634385768799</v>
       </c>
       <c r="F65" t="n">
-        <v>1.936090585656186</v>
+        <v>1.878776758155342</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.363888370181717</v>
+        <v>-6.375494872483773</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-11.37847312465855</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.15303201908193</v>
+        <v>-15.13982681153439</v>
       </c>
       <c r="F66" t="n">
-        <v>1.964461492504894</v>
+        <v>1.924557418457134</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.247984684387764</v>
+        <v>-6.276101362879392</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-11.02046673189842</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.00020655342903</v>
+        <v>-14.99481397885483</v>
       </c>
       <c r="F67" t="n">
-        <v>1.786257192205844</v>
+        <v>1.734511943526416</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.067291879593455</v>
+        <v>-6.079113498197655</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.60509861846996</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.11145590468568</v>
+        <v>-15.10038719313899</v>
       </c>
       <c r="F68" t="n">
-        <v>1.744216622157242</v>
+        <v>1.700073779155867</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.168665436978936</v>
+        <v>-6.197114567937514</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.15321385528872</v>
       </c>
       <c r="E69" t="n">
-        <v>-14.99849051201875</v>
+        <v>-14.99422240902393</v>
       </c>
       <c r="F69" t="n">
-        <v>1.768109198715855</v>
+        <v>1.706937944797016</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.899432717824797</v>
+        <v>-5.941864408422751</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.675720187586519</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.04659833958919</v>
+        <v>-15.03255222286054</v>
       </c>
       <c r="F70" t="n">
-        <v>1.600812272736893</v>
+        <v>1.565782538535447</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.885582161370826</v>
+        <v>-5.927808513680371</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.18148096435077</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.09744401100511</v>
+        <v>-15.05639590935049</v>
       </c>
       <c r="F71" t="n">
-        <v>1.522822835195866</v>
+        <v>1.475174574270913</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.811499040316464</v>
+        <v>-5.870421351076524</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.689539487631908</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.20510483122144</v>
+        <v>-15.16891640239253</v>
       </c>
       <c r="F72" t="n">
-        <v>1.430493940514177</v>
+        <v>1.392794808563396</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.654713479101369</v>
+        <v>-5.722802677736894</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.207693472798603</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.32038761314329</v>
+        <v>-15.29278428037269</v>
       </c>
       <c r="F73" t="n">
-        <v>1.353408969243529</v>
+        <v>1.314917818180307</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.814227106148203</v>
+        <v>-5.881431394540816</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-7.74111477836574</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.48256085992573</v>
+        <v>-15.44113630474236</v>
       </c>
       <c r="F74" t="n">
-        <v>1.263588135084567</v>
+        <v>1.209310380848078</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.684218635543201</v>
+        <v>-5.777926230161359</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-7.30512732747144</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.68559642610184</v>
+        <v>-15.6598606939544</v>
       </c>
       <c r="F75" t="n">
-        <v>1.151541875708611</v>
+        <v>1.108098160689204</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.700107907860675</v>
+        <v>-5.799882760000674</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.904455977332297</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.70766051409223</v>
+        <v>-15.68139676920316</v>
       </c>
       <c r="F76" t="n">
-        <v>0.974359377844746</v>
+        <v>0.9315463447111718</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.802649937887348</v>
+        <v>-5.901979890402459</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.541085542826201</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.77707952259555</v>
+        <v>-15.76135647651155</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8222819302424896</v>
+        <v>0.772653621536436</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.710257486116389</v>
+        <v>-5.81784497122972</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.223988397367747</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.94690406512471</v>
+        <v>-15.9191393951275</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8355164718312283</v>
+        <v>0.7896869214607677</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.67586821181451</v>
+        <v>-5.796044889610147</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.951406623579222</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.05770851675647</v>
+        <v>-16.02524062215329</v>
       </c>
       <c r="F79" t="n">
-        <v>0.5767071153173517</v>
+        <v>0.5154576372886414</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.703539990681248</v>
+        <v>-5.817018729069211</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.720630754009505</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.55987796808477</v>
+        <v>-16.52899900071334</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5563932917853202</v>
+        <v>0.5001306007608629</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.65112983706792</v>
+        <v>-5.763523215931428</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.535809866599439</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.08599377504722</v>
+        <v>-17.05152138762861</v>
       </c>
       <c r="F81" t="n">
-        <v>0.3993339461856775</v>
+        <v>0.3351755090711526</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.700469694368826</v>
+        <v>-5.82735408958587</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-5.393133253691802</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.48897016605269</v>
+        <v>-17.46962925488717</v>
       </c>
       <c r="F82" t="n">
-        <v>0.07468922320192417</v>
+        <v>0.01443710257406435</v>
       </c>
       <c r="G82" t="n">
-        <v>-5.739136849679256</v>
+        <v>-5.861415800427666</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-5.291326606704374</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.99018137203507</v>
+        <v>-17.98156694193557</v>
       </c>
       <c r="F83" t="n">
-        <v>0.08979136541382444</v>
+        <v>0.01234949664189167</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.743248504454332</v>
+        <v>-5.878370876242127</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.23515892877247</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.83664935395213</v>
+        <v>-18.79175360389325</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0004398759140868544</v>
+        <v>-0.0716289743111064</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.748073954231977</v>
+        <v>-5.879495347821518</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.222147978740719</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.46470584309662</v>
+        <v>-19.44961836790532</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.1718145030279275</v>
+        <v>-0.2466358641191939</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.837347219621844</v>
+        <v>-5.968915283417392</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.253681250672757</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.16509518883712</v>
+        <v>-20.13890477905106</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.2881337544055679</v>
+        <v>-0.3600168223698185</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.035860454446058</v>
+        <v>-6.186652093242316</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.334248712212619</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.86695612564457</v>
+        <v>-20.8682077114025</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.4007764726192883</v>
+        <v>-0.4691345666324931</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.384251083782417</v>
+        <v>-6.530979957872269</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-5.460469895028772</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.70688750538056</v>
+        <v>-21.69941221388104</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.5028344909661379</v>
+        <v>-0.5820021791620916</v>
       </c>
       <c r="G88" t="n">
-        <v>-6.639486576276579</v>
+        <v>-6.779713071233433</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-5.634721731502183</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.68609691274122</v>
+        <v>-22.69071213522358</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.724712289607339</v>
+        <v>-0.8070480542530536</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.653645140163165</v>
+        <v>-6.81482102954475</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.859116691763467</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.78077977329154</v>
+        <v>-23.77013640534227</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.000207826557996</v>
+        <v>-1.079678633179699</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.064883952773716</v>
+        <v>-7.21652138975795</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.12533430629794</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.02751563640979</v>
+        <v>-25.01275083567171</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.9959886136318488</v>
+        <v>-1.060288831945514</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.415689751502331</v>
+        <v>-7.571160169870226</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.430640405486604</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.24443833565359</v>
+        <v>-26.23952488375234</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.21930866929879</v>
+        <v>-1.287593428208991</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.740065579108404</v>
+        <v>-7.896064010217926</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.769424150571708</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.53355944380456</v>
+        <v>-27.53156717350629</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.470760070477959</v>
+        <v>-1.547791262673071</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.10709799162831</v>
+        <v>-8.245359105824665</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-7.124573784371754</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.00937216817553</v>
+        <v>-29.02521743943121</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.767224557880815</v>
+        <v>-1.837724036901728</v>
       </c>
       <c r="G94" t="n">
-        <v>-8.431972497934808</v>
+        <v>-8.575049283895074</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-7.48672510803906</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.60903076999577</v>
+        <v>-30.62121906411499</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.059548056467393</v>
+        <v>-2.11783968534162</v>
       </c>
       <c r="G95" t="n">
-        <v>-8.766307232528787</v>
+        <v>-8.897679736049659</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-7.844214500625331</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.40491944043337</v>
+        <v>-32.44074852725756</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.107225651433548</v>
+        <v>-2.174420161812427</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.11687835892779</v>
+        <v>-9.27105807948282</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.179445217080506</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.08936319933965</v>
+        <v>-34.13773747778434</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.493711422276908</v>
+        <v>-2.539457859530632</v>
       </c>
       <c r="G97" t="n">
-        <v>-9.546172273897858</v>
+        <v>-9.695912776217728</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-8.480634578649157</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.05609332573473</v>
+        <v>-36.12222692162349</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.873577477822466</v>
+        <v>-2.932626902761065</v>
       </c>
       <c r="G98" t="n">
-        <v>-9.972845681187259</v>
+        <v>-10.14447426725031</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-8.738374505396234</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.08610675701515</v>
+        <v>-38.17210438780419</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.153756683351628</v>
+        <v>-3.199400451461146</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.34646847496377</v>
+        <v>-10.52198382148601</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-8.934650139813721</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.28019036974238</v>
+        <v>-40.37174680133909</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.536385027776992</v>
+        <v>-3.567728450800784</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.49448804686648</v>
+        <v>-10.66472815497933</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-9.065909594704733</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.1591677118832</v>
+        <v>-42.27406915126943</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.979583278276567</v>
+        <v>-4.011855612605072</v>
       </c>
       <c r="G101" t="n">
-        <v>-10.78088118012349</v>
+        <v>-10.95458759410498</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-9.120152148329183</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.3659187414026</v>
+        <v>-44.47948303741073</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.220919324248089</v>
+        <v>-4.241257592814455</v>
       </c>
       <c r="G102" t="n">
-        <v>-10.94231618686903</v>
+        <v>-11.10369741453902</v>
       </c>
     </row>
   </sheetData>
